--- a/biology/Biochimie/S-Nitrosothiol/S-Nitrosothiol.xlsx
+++ b/biology/Biochimie/S-Nitrosothiol/S-Nitrosothiol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un S-nitrosothiol, ou thionitrite, est un composé organique ou un groupe fonctionnel contenant un groupe nitroso –N=O lié à l'atome de soufre d'un thiol[1]. Ces composés ont la formule générale –RSNO, où R est un groupe organique ou un atome d'hydrogène pour le plus simple d'entre eux[2].
-Les S-nitrosothiols sont intéressants en biochimie dans la mesure où ils sont susceptibles de céder un ion nitrosonium NO+ ainsi que du monoxyde d'azote NO, et que certains dérivés organiques nitroso interviennent en signalisation cellulaire dans les systèmes biologiques, notamment comme vasodilatateurs[3]. Les érythrocytes libèrent ainsi des S-nitrosothiols dans la circulation sanguine lorsqu'ils circulent dans des tissus à faible pression partielle d'oxygène, ce qui provoque la dilatation des vaisseaux sanguins[4]. L'addition d'un groupe nitroso à l'atome de soufre d'un résidu d'acide aminé est appelée S-nitrosylation. Il s'agit d'un processus réversible, et un mode de modification post-traductionnelle important.
-Les protéines S-nitrosylées (SNO) transmettent l'activité physiologique du monoxyde d'azote et régulent l'activité de certaines protéines de manière analogue à celle de phosphorylation : les donneurs de NO ciblent des motifs d'acides aminés spécifiques ; les modifications post-traductionnelles conduisent à des modifications de l'activité de la protéine, de ses interactions avec d'autres protéines, ou encore de sa localisation à l'intérieur de la cellule. L'oxyde nitrique synthase est une activité enzymatique qui conduit directement à la formation de protéines S-nitrosylées. Elle est portée par des hémoprotéines qui combinent en un seul monomère des domaines catalytiques réductase et oxygénase produisant du monoxyde d'azote à partir de l'atome d'azote terminal d'une chaîne latérale d'arginine en présence de NADPH et d'O2. Ces enzymes ciblent des résidus de cystéine spécifiques pour en réaliser la S-nitrosylation. Les réactions de thiol S-nitrosylation et de transfert de NO (transnitrosylation) interviennent dans pratiquement tous les types de signalisation cellulaire, qu'il s'agisse de la régulation des canaux ioniques et des réactions couplées aux protéines G ou de la stimulation de récepteurs et de l'activation de protéines régulatrices du noyau[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un S-nitrosothiol, ou thionitrite, est un composé organique ou un groupe fonctionnel contenant un groupe nitroso –N=O lié à l'atome de soufre d'un thiol. Ces composés ont la formule générale –RSNO, où R est un groupe organique ou un atome d'hydrogène pour le plus simple d'entre eux.
+Les S-nitrosothiols sont intéressants en biochimie dans la mesure où ils sont susceptibles de céder un ion nitrosonium NO+ ainsi que du monoxyde d'azote NO, et que certains dérivés organiques nitroso interviennent en signalisation cellulaire dans les systèmes biologiques, notamment comme vasodilatateurs. Les érythrocytes libèrent ainsi des S-nitrosothiols dans la circulation sanguine lorsqu'ils circulent dans des tissus à faible pression partielle d'oxygène, ce qui provoque la dilatation des vaisseaux sanguins. L'addition d'un groupe nitroso à l'atome de soufre d'un résidu d'acide aminé est appelée S-nitrosylation. Il s'agit d'un processus réversible, et un mode de modification post-traductionnelle important.
+Les protéines S-nitrosylées (SNO) transmettent l'activité physiologique du monoxyde d'azote et régulent l'activité de certaines protéines de manière analogue à celle de phosphorylation : les donneurs de NO ciblent des motifs d'acides aminés spécifiques ; les modifications post-traductionnelles conduisent à des modifications de l'activité de la protéine, de ses interactions avec d'autres protéines, ou encore de sa localisation à l'intérieur de la cellule. L'oxyde nitrique synthase est une activité enzymatique qui conduit directement à la formation de protéines S-nitrosylées. Elle est portée par des hémoprotéines qui combinent en un seul monomère des domaines catalytiques réductase et oxygénase produisant du monoxyde d'azote à partir de l'atome d'azote terminal d'une chaîne latérale d'arginine en présence de NADPH et d'O2. Ces enzymes ciblent des résidus de cystéine spécifiques pour en réaliser la S-nitrosylation. Les réactions de thiol S-nitrosylation et de transfert de NO (transnitrosylation) interviennent dans pratiquement tous les types de signalisation cellulaire, qu'il s'agisse de la régulation des canaux ioniques et des réactions couplées aux protéines G ou de la stimulation de récepteurs et de l'activation de protéines régulatrices du noyau,.
 </t>
         </is>
       </c>
